--- a/src/backend/BASE DATOS CAP-HUIL.xlsx
+++ b/src/backend/BASE DATOS CAP-HUIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0116339\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0116339\Documents\GitHub\TFG\src\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="135" yWindow="495" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPSS" sheetId="2" r:id="rId1"/>

--- a/src/backend/BASE DATOS CAP-HUIL.xlsx
+++ b/src/backend/BASE DATOS CAP-HUIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SPSS" sheetId="2" r:id="rId1"/>
@@ -236,12 +236,6 @@
     <t>t.seg</t>
   </si>
   <si>
-    <t>RA nuclear</t>
-  </si>
-  <si>
-    <t>RA estroma</t>
-  </si>
-  <si>
     <t>52a</t>
   </si>
   <si>
@@ -261,6 +255,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>RA-nuclear</t>
+  </si>
+  <si>
+    <t>RA-estroma</t>
   </si>
 </sst>
 </file>
@@ -1079,11 +1079,11 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:BH271"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AA12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BI1" sqref="BI1:BI1048576"/>
+      <selection pane="bottomRight" activeCell="AS1" sqref="AS1:AS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,8 +1095,9 @@
     <col min="46" max="46" width="6.375" style="46" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.875" style="60" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="10.875" style="60" customWidth="1"/>
-    <col min="49" max="54" width="6.375" style="46" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.375" style="46" customWidth="1"/>
+    <col min="49" max="53" width="6.375" style="46" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.375" style="46" customWidth="1"/>
+    <col min="55" max="55" width="15.375" style="46" customWidth="1"/>
     <col min="56" max="60" width="6.375" style="46" bestFit="1" customWidth="1"/>
     <col min="61" max="16384" width="6.125" style="46"/>
   </cols>
@@ -1223,7 +1224,7 @@
         <v>41</v>
       </c>
       <c r="AP1" s="83" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ1" s="69">
         <v>43</v>
@@ -1254,10 +1255,10 @@
         <v>51</v>
       </c>
       <c r="BB1" s="70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BC1" s="70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BD1" s="69">
         <v>53</v>
@@ -1409,7 +1410,7 @@
         <v>43</v>
       </c>
       <c r="AS2" s="78" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AT2" s="52" t="s">
         <v>44</v>
@@ -1436,10 +1437,10 @@
         <v>50</v>
       </c>
       <c r="BB2" s="63" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="BC2" s="63" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BD2" s="53" t="s">
         <v>52</v>
@@ -1589,7 +1590,7 @@
         <v>40.85</v>
       </c>
       <c r="AS3" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT3" s="54"/>
       <c r="AU3" s="55">
@@ -1768,14 +1769,14 @@
         <v>6.78</v>
       </c>
       <c r="AS4" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT4" s="54"/>
       <c r="AU4" s="55">
         <v>43501</v>
       </c>
       <c r="AV4" s="64">
-        <f t="shared" ref="AV4:AV67" si="0">(AU4-B4)/30.4</f>
+        <f>(AU4-B4)/30.4</f>
         <v>62.598684210526322</v>
       </c>
       <c r="AW4" s="54">
@@ -1945,7 +1946,7 @@
         <v>23.72</v>
       </c>
       <c r="AS5" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT5" s="54">
         <v>59</v>
@@ -1954,7 +1955,7 @@
         <v>43209</v>
       </c>
       <c r="AV5" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU5-B5)/30.4</f>
         <v>115.36184210526316</v>
       </c>
       <c r="AW5" s="54">
@@ -2124,14 +2125,14 @@
         <v>13.32</v>
       </c>
       <c r="AS6" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT6" s="54"/>
       <c r="AU6" s="55">
         <v>43438</v>
       </c>
       <c r="AV6" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU6-B6)/30.4</f>
         <v>104.83552631578948</v>
       </c>
       <c r="AW6" s="54">
@@ -2303,14 +2304,14 @@
         <v>10.54</v>
       </c>
       <c r="AS7" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT7" s="54"/>
       <c r="AU7" s="55">
         <v>41775</v>
       </c>
       <c r="AV7" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU7-B7)/30.4</f>
         <v>44.144736842105267</v>
       </c>
       <c r="AW7" s="54">
@@ -2482,14 +2483,14 @@
         <v>18.18</v>
       </c>
       <c r="AS8" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT8" s="54"/>
       <c r="AU8" s="55">
         <v>43242</v>
       </c>
       <c r="AV8" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU8-B8)/30.4</f>
         <v>69.736842105263165</v>
       </c>
       <c r="AW8" s="54">
@@ -2661,14 +2662,14 @@
         <v>5.9</v>
       </c>
       <c r="AS9" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT9" s="54"/>
       <c r="AU9" s="55">
         <v>43396</v>
       </c>
       <c r="AV9" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU9-B9)/30.4</f>
         <v>114.14473684210527</v>
       </c>
       <c r="AW9" s="54">
@@ -2836,14 +2837,14 @@
         <v>6.65</v>
       </c>
       <c r="AS10" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT10" s="54"/>
       <c r="AU10" s="55">
         <v>43496</v>
       </c>
       <c r="AV10" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU10-B10)/30.4</f>
         <v>70</v>
       </c>
       <c r="AW10" s="54">
@@ -3009,14 +3010,14 @@
         <v>4.54</v>
       </c>
       <c r="AS11" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT11" s="54"/>
       <c r="AU11" s="55">
         <v>43483</v>
       </c>
       <c r="AV11" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU11-B11)/30.4</f>
         <v>102.30263157894737</v>
       </c>
       <c r="AW11" s="54">
@@ -3184,14 +3185,14 @@
         <v>3.24</v>
       </c>
       <c r="AS12" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT12" s="54"/>
       <c r="AU12" s="55">
         <v>41423</v>
       </c>
       <c r="AV12" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU12-B12)/30.4</f>
         <v>47.434210526315795</v>
       </c>
       <c r="AW12" s="54">
@@ -3361,14 +3362,14 @@
         <v>34.72</v>
       </c>
       <c r="AS13" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT13" s="54"/>
       <c r="AU13" s="55">
         <v>43011</v>
       </c>
       <c r="AV13" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU13-B13)/30.4</f>
         <v>38.223684210526315</v>
       </c>
       <c r="AW13" s="54">
@@ -3538,14 +3539,14 @@
         <v>10.57</v>
       </c>
       <c r="AS14" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT14" s="54"/>
       <c r="AU14" s="55">
         <v>43209</v>
       </c>
       <c r="AV14" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU14-B14)/30.4</f>
         <v>93.94736842105263</v>
       </c>
       <c r="AW14" s="54">
@@ -3715,14 +3716,14 @@
         <v>6.22</v>
       </c>
       <c r="AS15" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT15" s="54"/>
       <c r="AU15" s="55">
         <v>43241</v>
       </c>
       <c r="AV15" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU15-B15)/30.4</f>
         <v>84.21052631578948</v>
       </c>
       <c r="AW15" s="54">
@@ -3890,14 +3891,14 @@
         <v>3</v>
       </c>
       <c r="AS16" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT16" s="54"/>
       <c r="AU16" s="55">
         <v>41124</v>
       </c>
       <c r="AV16" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU16-B16)/30.4</f>
         <v>16.019736842105264</v>
       </c>
       <c r="AW16" s="56">
@@ -4065,14 +4066,14 @@
         <v>36</v>
       </c>
       <c r="AS17" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT17" s="54"/>
       <c r="AU17" s="55">
         <v>43500</v>
       </c>
       <c r="AV17" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU17-B17)/30.4</f>
         <v>112.59868421052632</v>
       </c>
       <c r="AW17" s="54">
@@ -4244,14 +4245,14 @@
         <v>6.2</v>
       </c>
       <c r="AS18" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT18" s="54"/>
       <c r="AU18" s="55">
         <v>43424</v>
       </c>
       <c r="AV18" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU18-B18)/30.4</f>
         <v>71.64473684210526</v>
       </c>
       <c r="AW18" s="54">
@@ -4423,14 +4424,14 @@
         <v>17.46</v>
       </c>
       <c r="AS19" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT19" s="54"/>
       <c r="AU19" s="55">
         <v>43531</v>
       </c>
       <c r="AV19" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU19-B19)/30.4</f>
         <v>63.15789473684211</v>
       </c>
       <c r="AW19" s="54">
@@ -4600,14 +4601,14 @@
         <v>7.72</v>
       </c>
       <c r="AS20" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT20" s="54"/>
       <c r="AU20" s="55">
         <v>43510</v>
       </c>
       <c r="AV20" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU20-B20)/30.4</f>
         <v>118.61842105263159</v>
       </c>
       <c r="AW20" s="54">
@@ -4775,14 +4776,14 @@
         <v>35.14</v>
       </c>
       <c r="AS21" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT21" s="54"/>
       <c r="AU21" s="55">
         <v>43396</v>
       </c>
       <c r="AV21" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU21-B21)/30.4</f>
         <v>113.0921052631579</v>
       </c>
       <c r="AW21" s="54">
@@ -4952,14 +4953,14 @@
         <v>10.39</v>
       </c>
       <c r="AS22" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT22" s="54"/>
       <c r="AU22" s="55">
         <v>43531</v>
       </c>
       <c r="AV22" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU22-B22)/30.4</f>
         <v>53.947368421052637</v>
       </c>
       <c r="AW22" s="54">
@@ -5129,14 +5130,14 @@
         <v>23.42</v>
       </c>
       <c r="AS23" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT23" s="54"/>
       <c r="AU23" s="55">
         <v>43389</v>
       </c>
       <c r="AV23" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU23-B23)/30.4</f>
         <v>110.52631578947368</v>
       </c>
       <c r="AW23" s="54">
@@ -5306,14 +5307,14 @@
         <v>12.23</v>
       </c>
       <c r="AS24" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT24" s="54"/>
       <c r="AU24" s="55">
         <v>43398</v>
       </c>
       <c r="AV24" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU24-B24)/30.4</f>
         <v>83.223684210526315</v>
       </c>
       <c r="AW24" s="54">
@@ -5483,14 +5484,14 @@
         <v>11.68</v>
       </c>
       <c r="AS25" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT25" s="54"/>
       <c r="AU25" s="55">
         <v>43244</v>
       </c>
       <c r="AV25" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU25-B25)/30.4</f>
         <v>73.78289473684211</v>
       </c>
       <c r="AW25" s="54">
@@ -5660,14 +5661,14 @@
         <v>17.05</v>
       </c>
       <c r="AS26" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT26" s="54"/>
       <c r="AU26" s="55">
         <v>43496</v>
       </c>
       <c r="AV26" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU26-B26)/30.4</f>
         <v>64.736842105263165</v>
       </c>
       <c r="AW26" s="54">
@@ -5839,14 +5840,14 @@
         <v>7</v>
       </c>
       <c r="AS27" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT27" s="54"/>
       <c r="AU27" s="55">
         <v>43531</v>
       </c>
       <c r="AV27" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU27-B27)/30.4</f>
         <v>41.743421052631582</v>
       </c>
       <c r="AW27" s="54">
@@ -6016,14 +6017,14 @@
         <v>25.71</v>
       </c>
       <c r="AS28" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT28" s="54"/>
       <c r="AU28" s="55">
         <v>43522</v>
       </c>
       <c r="AV28" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU28-B28)/30.4</f>
         <v>96.08552631578948</v>
       </c>
       <c r="AW28" s="54">
@@ -6195,14 +6196,14 @@
         <v>9.33</v>
       </c>
       <c r="AS29" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT29" s="54"/>
       <c r="AU29" s="55">
         <v>43227</v>
       </c>
       <c r="AV29" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU29-B29)/30.4</f>
         <v>91.644736842105274</v>
       </c>
       <c r="AW29" s="54">
@@ -6370,14 +6371,14 @@
         <v>3.9</v>
       </c>
       <c r="AS30" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT30" s="54"/>
       <c r="AU30" s="55">
         <v>42447</v>
       </c>
       <c r="AV30" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU30-B30)/30.4</f>
         <v>29.078947368421055</v>
       </c>
       <c r="AW30" s="54">
@@ -6547,14 +6548,14 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="AS31" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT31" s="54"/>
       <c r="AU31" s="55">
         <v>43426</v>
       </c>
       <c r="AV31" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU31-B31)/30.4</f>
         <v>71.48026315789474</v>
       </c>
       <c r="AW31" s="54">
@@ -6724,14 +6725,14 @@
         <v>4</v>
       </c>
       <c r="AS32" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT32" s="54"/>
       <c r="AU32" s="55">
         <v>43376</v>
       </c>
       <c r="AV32" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU32-B32)/30.4</f>
         <v>111.74342105263159</v>
       </c>
       <c r="AW32" s="54">
@@ -6899,14 +6900,14 @@
         <v>9.66</v>
       </c>
       <c r="AS33" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT33" s="54"/>
       <c r="AU33" s="55">
         <v>43438</v>
       </c>
       <c r="AV33" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU33-B33)/30.4</f>
         <v>82.467105263157904</v>
       </c>
       <c r="AW33" s="54">
@@ -7076,14 +7077,14 @@
         <v>23.66</v>
       </c>
       <c r="AS34" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT34" s="54"/>
       <c r="AU34" s="55">
         <v>43368</v>
       </c>
       <c r="AV34" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU34-B34)/30.4</f>
         <v>71.875</v>
       </c>
       <c r="AW34" s="54">
@@ -7249,14 +7250,14 @@
         <v>12</v>
       </c>
       <c r="AS35" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT35" s="54"/>
       <c r="AU35" s="55">
         <v>43483</v>
       </c>
       <c r="AV35" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU35-B35)/30.4</f>
         <v>69.17763157894737</v>
       </c>
       <c r="AW35" s="54">
@@ -7424,14 +7425,14 @@
         <v>17.059999999999999</v>
       </c>
       <c r="AS36" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT36" s="54"/>
       <c r="AU36" s="55">
         <v>43489</v>
       </c>
       <c r="AV36" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU36-B36)/30.4</f>
         <v>68.651315789473685</v>
       </c>
       <c r="AW36" s="54">
@@ -7603,14 +7604,14 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="AS37" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT37" s="54"/>
       <c r="AU37" s="55">
         <v>43223</v>
       </c>
       <c r="AV37" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU37-B37)/30.4</f>
         <v>84.342105263157904</v>
       </c>
       <c r="AW37" s="54">
@@ -7782,14 +7783,14 @@
         <v>13.95</v>
       </c>
       <c r="AS38" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT38" s="54"/>
       <c r="AU38" s="55">
         <v>43517</v>
       </c>
       <c r="AV38" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU38-B38)/30.4</f>
         <v>89.83552631578948</v>
       </c>
       <c r="AW38" s="54">
@@ -7955,14 +7956,14 @@
         <v>27.17</v>
       </c>
       <c r="AS39" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT39" s="54"/>
       <c r="AU39" s="55">
         <v>43500</v>
       </c>
       <c r="AV39" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU39-B39)/30.4</f>
         <v>117.82894736842105</v>
       </c>
       <c r="AW39" s="54">
@@ -8132,14 +8133,14 @@
         <v>7.68</v>
       </c>
       <c r="AS40" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT40" s="54"/>
       <c r="AU40" s="55">
         <v>43228</v>
       </c>
       <c r="AV40" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU40-B40)/30.4</f>
         <v>56.381578947368425</v>
       </c>
       <c r="AW40" s="54">
@@ -8309,14 +8310,14 @@
         <v>7.65</v>
       </c>
       <c r="AS41" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT41" s="54"/>
       <c r="AU41" s="55">
         <v>43501</v>
       </c>
       <c r="AV41" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU41-B41)/30.4</f>
         <v>86.381578947368425</v>
       </c>
       <c r="AW41" s="54">
@@ -8488,14 +8489,14 @@
         <v>21</v>
       </c>
       <c r="AS42" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT42" s="54"/>
       <c r="AU42" s="55">
         <v>43480</v>
       </c>
       <c r="AV42" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU42-B42)/30.4</f>
         <v>55.921052631578952</v>
       </c>
       <c r="AW42" s="54">
@@ -8661,14 +8662,14 @@
         <v>33</v>
       </c>
       <c r="AS43" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT43" s="54"/>
       <c r="AU43" s="55">
         <v>43298</v>
       </c>
       <c r="AV43" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU43-B43)/30.4</f>
         <v>81.743421052631589</v>
       </c>
       <c r="AW43" s="54">
@@ -8840,14 +8841,14 @@
         <v>17</v>
       </c>
       <c r="AS44" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT44" s="54"/>
       <c r="AU44" s="55">
         <v>43370</v>
       </c>
       <c r="AV44" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU44-B44)/30.4</f>
         <v>64.80263157894737</v>
       </c>
       <c r="AW44" s="54">
@@ -9011,14 +9012,14 @@
         <v>47</v>
       </c>
       <c r="AS45" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT45" s="54"/>
       <c r="AU45" s="55">
         <v>43277</v>
       </c>
       <c r="AV45" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU45-B45)/30.4</f>
         <v>37.763157894736842</v>
       </c>
       <c r="AW45" s="54">
@@ -9184,14 +9185,14 @@
         <v>16.149999999999999</v>
       </c>
       <c r="AS46" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT46" s="54"/>
       <c r="AU46" s="55">
         <v>43454</v>
       </c>
       <c r="AV46" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU46-B46)/30.4</f>
         <v>106.71052631578948</v>
       </c>
       <c r="AW46" s="54">
@@ -9357,14 +9358,14 @@
         <v>7.36</v>
       </c>
       <c r="AS47" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT47" s="54"/>
       <c r="AU47" s="55">
         <v>42503</v>
       </c>
       <c r="AV47" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU47-B47)/30.4</f>
         <v>52.861842105263158</v>
       </c>
       <c r="AW47" s="54">
@@ -9530,14 +9531,14 @@
         <v>62.98</v>
       </c>
       <c r="AS48" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT48" s="54"/>
       <c r="AU48" s="55">
         <v>43538</v>
       </c>
       <c r="AV48" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU48-B48)/30.4</f>
         <v>65.88815789473685</v>
       </c>
       <c r="AW48" s="56">
@@ -9705,14 +9706,14 @@
         <v>8.9</v>
       </c>
       <c r="AS49" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT49" s="54"/>
       <c r="AU49" s="55">
         <v>43349</v>
       </c>
       <c r="AV49" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU49-B49)/30.4</f>
         <v>59.473684210526315</v>
       </c>
       <c r="AW49" s="54">
@@ -9876,14 +9877,14 @@
         <v>27</v>
       </c>
       <c r="AS50" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT50" s="54"/>
       <c r="AU50" s="55">
         <v>43417</v>
       </c>
       <c r="AV50" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU50-B50)/30.4</f>
         <v>73.81578947368422</v>
       </c>
       <c r="AW50" s="54">
@@ -10047,14 +10048,14 @@
         <v>10.36</v>
       </c>
       <c r="AS51" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT51" s="54"/>
       <c r="AU51" s="55">
         <v>42600</v>
       </c>
       <c r="AV51" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU51-B51)/30.4</f>
         <v>37.30263157894737</v>
       </c>
       <c r="AW51" s="54">
@@ -10222,14 +10223,14 @@
         <v>10</v>
       </c>
       <c r="AS52" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT52" s="54"/>
       <c r="AU52" s="55">
         <v>43271</v>
       </c>
       <c r="AV52" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU52-B52)/30.4</f>
         <v>59.473684210526315</v>
       </c>
       <c r="AW52" s="54">
@@ -10397,14 +10398,14 @@
         <v>22.38</v>
       </c>
       <c r="AS53" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT53" s="54"/>
       <c r="AU53" s="55">
         <v>43503</v>
       </c>
       <c r="AV53" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU53-B53)/30.4</f>
         <v>103.84868421052632</v>
       </c>
       <c r="AW53" s="54">
@@ -10572,14 +10573,14 @@
         <v>18.71</v>
       </c>
       <c r="AS54" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT54" s="54"/>
       <c r="AU54" s="55">
         <v>43475</v>
       </c>
       <c r="AV54" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU54-B54)/30.4</f>
         <v>42.69736842105263</v>
       </c>
       <c r="AW54" s="54">
@@ -10747,14 +10748,14 @@
         <v>9.67</v>
       </c>
       <c r="AS55" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT55" s="54"/>
       <c r="AU55" s="55">
         <v>43494</v>
       </c>
       <c r="AV55" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU55-B55)/30.4</f>
         <v>59.17763157894737</v>
       </c>
       <c r="AW55" s="54">
@@ -10920,14 +10921,14 @@
         <v>75.78</v>
       </c>
       <c r="AS56" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT56" s="54"/>
       <c r="AU56" s="55">
         <v>43070</v>
       </c>
       <c r="AV56" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU56-B56)/30.4</f>
         <v>75.06578947368422</v>
       </c>
       <c r="AW56" s="54">
@@ -11095,14 +11096,14 @@
         <v>19.329999999999998</v>
       </c>
       <c r="AS57" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT57" s="54"/>
       <c r="AU57" s="55">
         <v>43125</v>
       </c>
       <c r="AV57" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU57-B57)/30.4</f>
         <v>30.953947368421055</v>
       </c>
       <c r="AW57" s="54">
@@ -11270,14 +11271,14 @@
         <v>60</v>
       </c>
       <c r="AS58" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT58" s="54"/>
       <c r="AU58" s="55">
         <v>43388</v>
       </c>
       <c r="AV58" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU58-B58)/30.4</f>
         <v>57.039473684210527</v>
       </c>
       <c r="AW58" s="54">
@@ -11443,14 +11444,14 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="AS59" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT59" s="54"/>
       <c r="AU59" s="55">
         <v>43431</v>
       </c>
       <c r="AV59" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU59-B59)/30.4</f>
         <v>46.875</v>
       </c>
       <c r="AW59" s="54">
@@ -11616,14 +11617,14 @@
         <v>10.7</v>
       </c>
       <c r="AS60" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT60" s="54"/>
       <c r="AU60" s="55">
         <v>43468</v>
       </c>
       <c r="AV60" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU60-B60)/30.4</f>
         <v>79.967105263157904</v>
       </c>
       <c r="AW60" s="54">
@@ -11791,14 +11792,14 @@
         <v>7.31</v>
       </c>
       <c r="AS61" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT61" s="54"/>
       <c r="AU61" s="55">
         <v>43370</v>
       </c>
       <c r="AV61" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU61-B61)/30.4</f>
         <v>47.894736842105267</v>
       </c>
       <c r="AW61" s="54">
@@ -11962,14 +11963,14 @@
         <v>14.2</v>
       </c>
       <c r="AS62" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT62" s="54"/>
       <c r="AU62" s="55">
         <v>43580</v>
       </c>
       <c r="AV62" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU62-B62)/30.4</f>
         <v>88.289473684210535</v>
       </c>
       <c r="AW62" s="54">
@@ -12135,14 +12136,14 @@
         <v>6.18</v>
       </c>
       <c r="AS63" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT63" s="54"/>
       <c r="AU63" s="55">
         <v>43486</v>
       </c>
       <c r="AV63" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU63-B63)/30.4</f>
         <v>48.78289473684211</v>
       </c>
       <c r="AW63" s="54">
@@ -12310,14 +12311,14 @@
         <v>7.7</v>
       </c>
       <c r="AS64" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT64" s="54"/>
       <c r="AU64" s="55">
         <v>43080</v>
       </c>
       <c r="AV64" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU64-B64)/30.4</f>
         <v>30.131578947368421</v>
       </c>
       <c r="AW64" s="54">
@@ -12485,14 +12486,14 @@
         <v>18.61</v>
       </c>
       <c r="AS65" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT65" s="54"/>
       <c r="AU65" s="55">
         <v>43404</v>
       </c>
       <c r="AV65" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU65-B65)/30.4</f>
         <v>92.631578947368425</v>
       </c>
       <c r="AW65" s="54">
@@ -12658,14 +12659,14 @@
         <v>8.82</v>
       </c>
       <c r="AS66" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT66" s="54"/>
       <c r="AU66" s="55">
         <v>43504</v>
       </c>
       <c r="AV66" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU66-B66)/30.4</f>
         <v>41.28289473684211</v>
       </c>
       <c r="AW66" s="54">
@@ -12833,14 +12834,14 @@
         <v>10.71</v>
       </c>
       <c r="AS67" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT67" s="54"/>
       <c r="AU67" s="55">
         <v>43495</v>
       </c>
       <c r="AV67" s="64">
-        <f t="shared" si="0"/>
+        <f>(AU67-B67)/30.4</f>
         <v>60.131578947368425</v>
       </c>
       <c r="AW67" s="54">
@@ -13008,14 +13009,14 @@
         <v>10</v>
       </c>
       <c r="AS68" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT68" s="54"/>
       <c r="AU68" s="55">
         <v>43546</v>
       </c>
       <c r="AV68" s="64">
-        <f t="shared" ref="AV68:AV131" si="1">(AU68-B68)/30.4</f>
+        <f>(AU68-B68)/30.4</f>
         <v>62.5</v>
       </c>
       <c r="AW68" s="54">
@@ -13181,14 +13182,14 @@
         <v>11.54</v>
       </c>
       <c r="AS69" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT69" s="54"/>
       <c r="AU69" s="55">
         <v>43307</v>
       </c>
       <c r="AV69" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU69-B69)/30.4</f>
         <v>60.42763157894737</v>
       </c>
       <c r="AW69" s="54">
@@ -13354,14 +13355,14 @@
         <v>8.69</v>
       </c>
       <c r="AS70" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT70" s="54"/>
       <c r="AU70" s="55">
         <v>43395</v>
       </c>
       <c r="AV70" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU70-B70)/30.4</f>
         <v>42.53289473684211</v>
       </c>
       <c r="AW70" s="54">
@@ -13527,14 +13528,14 @@
         <v>6.39</v>
       </c>
       <c r="AS71" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT71" s="54"/>
       <c r="AU71" s="55">
         <v>43265</v>
       </c>
       <c r="AV71" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU71-B71)/30.4</f>
         <v>88.519736842105274</v>
       </c>
       <c r="AW71" s="54">
@@ -13700,14 +13701,14 @@
         <v>7.59</v>
       </c>
       <c r="AS72" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT72" s="54"/>
       <c r="AU72" s="55">
         <v>43395</v>
       </c>
       <c r="AV72" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU72-B72)/30.4</f>
         <v>52.203947368421055</v>
       </c>
       <c r="AW72" s="54">
@@ -13873,14 +13874,14 @@
         <v>19.25</v>
       </c>
       <c r="AS73" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT73" s="54"/>
       <c r="AU73" s="55">
         <v>43444</v>
       </c>
       <c r="AV73" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU73-B73)/30.4</f>
         <v>53.388157894736842</v>
       </c>
       <c r="AW73" s="54">
@@ -14046,14 +14047,14 @@
         <v>8.65</v>
       </c>
       <c r="AS74" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT74" s="54"/>
       <c r="AU74" s="55">
         <v>43265</v>
       </c>
       <c r="AV74" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU74-B74)/30.4</f>
         <v>118.88157894736842</v>
       </c>
       <c r="AW74" s="54">
@@ -14219,14 +14220,14 @@
         <v>13</v>
       </c>
       <c r="AS75" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT75" s="54"/>
       <c r="AU75" s="55">
         <v>43479</v>
       </c>
       <c r="AV75" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU75-B75)/30.4</f>
         <v>45.23026315789474</v>
       </c>
       <c r="AW75" s="54">
@@ -14394,14 +14395,14 @@
         <v>5.49</v>
       </c>
       <c r="AS76" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT76" s="54"/>
       <c r="AU76" s="55">
         <v>43174</v>
       </c>
       <c r="AV76" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU76-B76)/30.4</f>
         <v>34.276315789473685</v>
       </c>
       <c r="AW76" s="54">
@@ -14565,14 +14566,14 @@
         <v>20</v>
       </c>
       <c r="AS77" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT77" s="54"/>
       <c r="AU77" s="55">
         <v>43601</v>
       </c>
       <c r="AV77" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU77-B77)/30.4</f>
         <v>80.19736842105263</v>
       </c>
       <c r="AW77" s="54">
@@ -14740,14 +14741,14 @@
         <v>7.6</v>
       </c>
       <c r="AS78" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT78" s="54"/>
       <c r="AU78" s="55">
         <v>42534</v>
       </c>
       <c r="AV78" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU78-B78)/30.4</f>
         <v>20</v>
       </c>
       <c r="AW78" s="54">
@@ -14913,14 +14914,14 @@
         <v>12.6</v>
       </c>
       <c r="AS79" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT79" s="54"/>
       <c r="AU79" s="55">
         <v>43090</v>
       </c>
       <c r="AV79" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU79-B79)/30.4</f>
         <v>98.38815789473685</v>
       </c>
       <c r="AW79" s="54">
@@ -15086,14 +15087,14 @@
         <v>8.25</v>
       </c>
       <c r="AS80" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT80" s="54"/>
       <c r="AU80" s="55">
         <v>43530</v>
       </c>
       <c r="AV80" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU80-B80)/30.4</f>
         <v>61.90789473684211</v>
       </c>
       <c r="AW80" s="54">
@@ -15257,14 +15258,14 @@
         <v>13.2</v>
       </c>
       <c r="AS81" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT81" s="54"/>
       <c r="AU81" s="55">
         <v>43622</v>
       </c>
       <c r="AV81" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU81-B81)/30.4</f>
         <v>72.664473684210535</v>
       </c>
       <c r="AW81" s="54">
@@ -15432,14 +15433,14 @@
         <v>16.100000000000001</v>
       </c>
       <c r="AS82" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT82" s="54"/>
       <c r="AU82" s="55">
         <v>43357</v>
       </c>
       <c r="AV82" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU82-B82)/30.4</f>
         <v>46.611842105263158</v>
       </c>
       <c r="AW82" s="54">
@@ -15603,14 +15604,14 @@
         <v>14.3</v>
       </c>
       <c r="AS83" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT83" s="54"/>
       <c r="AU83" s="55">
         <v>43395</v>
       </c>
       <c r="AV83" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU83-B83)/30.4</f>
         <v>37.203947368421055</v>
       </c>
       <c r="AW83" s="54">
@@ -15772,14 +15773,14 @@
       <c r="AQ84" s="54"/>
       <c r="AR84" s="54"/>
       <c r="AS84" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT84" s="54"/>
       <c r="AU84" s="55">
         <v>43230</v>
       </c>
       <c r="AV84" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU84-B84)/30.4</f>
         <v>34.17763157894737</v>
       </c>
       <c r="AW84" s="54">
@@ -15927,14 +15928,14 @@
       <c r="AQ85" s="54"/>
       <c r="AR85" s="54"/>
       <c r="AS85" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT85" s="54"/>
       <c r="AU85" s="55">
         <v>42902</v>
       </c>
       <c r="AV85" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU85-B85)/30.4</f>
         <v>69.57236842105263</v>
       </c>
       <c r="AW85" s="54">
@@ -16078,14 +16079,14 @@
       <c r="AQ86" s="54"/>
       <c r="AR86" s="54"/>
       <c r="AS86" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT86" s="54"/>
       <c r="AU86" s="55">
         <v>43066</v>
       </c>
       <c r="AV86" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU86-B86)/30.4</f>
         <v>80.789473684210535</v>
       </c>
       <c r="AW86" s="54">
@@ -16231,14 +16232,14 @@
       <c r="AQ87" s="54"/>
       <c r="AR87" s="54"/>
       <c r="AS87" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT87" s="54"/>
       <c r="AU87" s="55">
         <v>43251</v>
       </c>
       <c r="AV87" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU87-B87)/30.4</f>
         <v>43.618421052631582</v>
       </c>
       <c r="AW87" s="54">
@@ -16384,14 +16385,14 @@
       <c r="AQ88" s="54"/>
       <c r="AR88" s="54"/>
       <c r="AS88" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT88" s="54"/>
       <c r="AU88" s="55">
         <v>41709</v>
       </c>
       <c r="AV88" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU88-B88)/30.4</f>
         <v>40.559210526315795</v>
       </c>
       <c r="AW88" s="54">
@@ -16537,14 +16538,14 @@
       <c r="AQ89" s="54"/>
       <c r="AR89" s="54"/>
       <c r="AS89" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT89" s="54"/>
       <c r="AU89" s="55">
         <v>43006</v>
       </c>
       <c r="AV89" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU89-B89)/30.4</f>
         <v>88.98026315789474</v>
       </c>
       <c r="AW89" s="54">
@@ -16688,14 +16689,14 @@
       <c r="AQ90" s="54"/>
       <c r="AR90" s="54"/>
       <c r="AS90" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT90" s="54"/>
       <c r="AU90" s="55">
         <v>43132</v>
       </c>
       <c r="AV90" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU90-B90)/30.4</f>
         <v>101.875</v>
       </c>
       <c r="AW90" s="54">
@@ -16841,14 +16842,14 @@
       <c r="AQ91" s="54"/>
       <c r="AR91" s="54"/>
       <c r="AS91" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT91" s="54"/>
       <c r="AU91" s="55">
         <v>41200</v>
       </c>
       <c r="AV91" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU91-B91)/30.4</f>
         <v>20.822368421052634</v>
       </c>
       <c r="AW91" s="54">
@@ -16992,14 +16993,14 @@
       <c r="AQ92" s="54"/>
       <c r="AR92" s="54"/>
       <c r="AS92" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT92" s="54"/>
       <c r="AU92" s="55">
         <v>43067</v>
       </c>
       <c r="AV92" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU92-B92)/30.4</f>
         <v>56.842105263157897</v>
       </c>
       <c r="AW92" s="54">
@@ -17143,14 +17144,14 @@
       <c r="AQ93" s="54"/>
       <c r="AR93" s="54"/>
       <c r="AS93" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT93" s="54"/>
       <c r="AU93" s="55">
         <v>43269</v>
       </c>
       <c r="AV93" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU93-B93)/30.4</f>
         <v>43.059210526315795</v>
       </c>
       <c r="AW93" s="54">
@@ -17296,14 +17297,14 @@
       <c r="AQ94" s="54"/>
       <c r="AR94" s="54"/>
       <c r="AS94" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT94" s="54"/>
       <c r="AU94" s="55">
         <v>42930</v>
       </c>
       <c r="AV94" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU94-B94)/30.4</f>
         <v>92.467105263157904</v>
       </c>
       <c r="AW94" s="54">
@@ -17445,14 +17446,14 @@
       <c r="AQ95" s="54"/>
       <c r="AR95" s="54"/>
       <c r="AS95" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT95" s="54"/>
       <c r="AU95" s="55">
         <v>43006</v>
       </c>
       <c r="AV95" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU95-B95)/30.4</f>
         <v>40.789473684210527</v>
       </c>
       <c r="AW95" s="54">
@@ -17600,14 +17601,14 @@
       <c r="AQ96" s="54"/>
       <c r="AR96" s="54"/>
       <c r="AS96" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT96" s="54"/>
       <c r="AU96" s="65">
         <v>43196</v>
       </c>
       <c r="AV96" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU96-B96)/30.4</f>
         <v>94.046052631578945</v>
       </c>
       <c r="AW96" s="54">
@@ -17753,14 +17754,14 @@
       <c r="AQ97" s="54"/>
       <c r="AR97" s="54"/>
       <c r="AS97" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT97" s="54"/>
       <c r="AU97" s="55">
         <v>42136</v>
       </c>
       <c r="AV97" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU97-B97)/30.4</f>
         <v>78.914473684210535</v>
       </c>
       <c r="AW97" s="54">
@@ -17902,14 +17903,14 @@
       <c r="AQ98" s="54"/>
       <c r="AR98" s="54"/>
       <c r="AS98" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT98" s="54"/>
       <c r="AU98" s="55">
         <v>43193</v>
       </c>
       <c r="AV98" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU98-B98)/30.4</f>
         <v>94.671052631578945</v>
       </c>
       <c r="AW98" s="54">
@@ -18055,14 +18056,14 @@
       <c r="AQ99" s="54"/>
       <c r="AR99" s="54"/>
       <c r="AS99" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT99" s="54"/>
       <c r="AU99" s="55">
         <v>43154</v>
       </c>
       <c r="AV99" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU99-B99)/30.4</f>
         <v>66.611842105263165</v>
       </c>
       <c r="AW99" s="54">
@@ -18208,14 +18209,14 @@
       <c r="AQ100" s="54"/>
       <c r="AR100" s="54"/>
       <c r="AS100" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT100" s="54"/>
       <c r="AU100" s="55">
         <v>43081</v>
       </c>
       <c r="AV100" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU100-B100)/30.4</f>
         <v>101.25</v>
       </c>
       <c r="AW100" s="54">
@@ -18359,14 +18360,14 @@
       <c r="AQ101" s="54"/>
       <c r="AR101" s="54"/>
       <c r="AS101" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT101" s="54"/>
       <c r="AU101" s="55">
         <v>42992</v>
       </c>
       <c r="AV101" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU101-B101)/30.4</f>
         <v>59.40789473684211</v>
       </c>
       <c r="AW101" s="54">
@@ -18508,14 +18509,14 @@
       <c r="AQ102" s="54"/>
       <c r="AR102" s="54"/>
       <c r="AS102" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT102" s="54"/>
       <c r="AU102" s="55">
         <v>43175</v>
       </c>
       <c r="AV102" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU102-B102)/30.4</f>
         <v>105.5921052631579</v>
       </c>
       <c r="AW102" s="54">
@@ -18661,14 +18662,14 @@
       <c r="AQ103" s="54"/>
       <c r="AR103" s="54"/>
       <c r="AS103" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT103" s="54"/>
       <c r="AU103" s="55">
         <v>43132</v>
       </c>
       <c r="AV103" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU103-B103)/30.4</f>
         <v>79.078947368421055</v>
       </c>
       <c r="AW103" s="54">
@@ -18810,14 +18811,14 @@
       <c r="AQ104" s="54"/>
       <c r="AR104" s="54"/>
       <c r="AS104" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT104" s="54"/>
       <c r="AU104" s="55">
         <v>43244</v>
       </c>
       <c r="AV104" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU104-B104)/30.4</f>
         <v>102.4671052631579</v>
       </c>
       <c r="AW104" s="54">
@@ -18965,14 +18966,14 @@
       <c r="AQ105" s="54"/>
       <c r="AR105" s="54"/>
       <c r="AS105" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT105" s="54"/>
       <c r="AU105" s="55">
         <v>42513</v>
       </c>
       <c r="AV105" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU105-B105)/30.4</f>
         <v>48.486842105263158</v>
       </c>
       <c r="AW105" s="54">
@@ -19116,14 +19117,14 @@
       <c r="AQ106" s="54"/>
       <c r="AR106" s="54"/>
       <c r="AS106" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT106" s="54"/>
       <c r="AU106" s="55">
         <v>43004</v>
       </c>
       <c r="AV106" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU106-B106)/30.4</f>
         <v>64.243421052631575</v>
       </c>
       <c r="AW106" s="54">
@@ -19271,14 +19272,14 @@
       <c r="AQ107" s="54"/>
       <c r="AR107" s="54"/>
       <c r="AS107" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT107" s="54"/>
       <c r="AU107" s="55">
         <v>43125</v>
       </c>
       <c r="AV107" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU107-B107)/30.4</f>
         <v>41.776315789473685</v>
       </c>
       <c r="AW107" s="54">
@@ -19424,14 +19425,14 @@
       <c r="AQ108" s="54"/>
       <c r="AR108" s="54"/>
       <c r="AS108" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT108" s="54"/>
       <c r="AU108" s="55">
         <v>43237</v>
       </c>
       <c r="AV108" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU108-B108)/30.4</f>
         <v>37.401315789473685</v>
       </c>
       <c r="AW108" s="54">
@@ -19577,14 +19578,14 @@
       <c r="AQ109" s="54"/>
       <c r="AR109" s="54"/>
       <c r="AS109" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT109" s="54"/>
       <c r="AU109" s="58">
         <v>43269</v>
       </c>
       <c r="AV109" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU109-B109)/30.4</f>
         <v>94.60526315789474</v>
       </c>
       <c r="AW109" s="54">
@@ -19732,14 +19733,14 @@
       <c r="AQ110" s="54"/>
       <c r="AR110" s="54"/>
       <c r="AS110" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT110" s="54"/>
       <c r="AU110" s="55">
         <v>43248</v>
       </c>
       <c r="AV110" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU110-B110)/30.4</f>
         <v>73.223684210526315</v>
       </c>
       <c r="AW110" s="56">
@@ -19885,14 +19886,14 @@
       <c r="AQ111" s="54"/>
       <c r="AR111" s="54"/>
       <c r="AS111" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT111" s="54"/>
       <c r="AU111" s="55">
         <v>43231</v>
       </c>
       <c r="AV111" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU111-B111)/30.4</f>
         <v>74.046052631578945</v>
       </c>
       <c r="AW111" s="54">
@@ -20036,14 +20037,14 @@
       <c r="AQ112" s="54"/>
       <c r="AR112" s="54"/>
       <c r="AS112" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT112" s="54"/>
       <c r="AU112" s="55">
         <v>41535</v>
       </c>
       <c r="AV112" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU112-B112)/30.4</f>
         <v>21.184210526315791</v>
       </c>
       <c r="AW112" s="54">
@@ -20189,14 +20190,14 @@
       <c r="AQ113" s="54"/>
       <c r="AR113" s="54"/>
       <c r="AS113" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT113" s="54"/>
       <c r="AU113" s="55">
         <v>43248</v>
       </c>
       <c r="AV113" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU113-B113)/30.4</f>
         <v>80.361842105263165</v>
       </c>
       <c r="AW113" s="54">
@@ -20344,14 +20345,14 @@
       <c r="AQ114" s="54"/>
       <c r="AR114" s="54"/>
       <c r="AS114" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT114" s="54"/>
       <c r="AU114" s="55">
         <v>43248</v>
       </c>
       <c r="AV114" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU114-B114)/30.4</f>
         <v>38.15789473684211</v>
       </c>
       <c r="AW114" s="54">
@@ -20497,14 +20498,14 @@
       <c r="AQ115" s="54"/>
       <c r="AR115" s="54"/>
       <c r="AS115" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT115" s="54"/>
       <c r="AU115" s="55">
         <v>43123</v>
       </c>
       <c r="AV115" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU115-B115)/30.4</f>
         <v>51.05263157894737</v>
       </c>
       <c r="AW115" s="54">
@@ -20650,14 +20651,14 @@
       <c r="AQ116" s="54"/>
       <c r="AR116" s="54"/>
       <c r="AS116" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT116" s="54"/>
       <c r="AU116" s="55">
         <v>43083</v>
       </c>
       <c r="AV116" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU116-B116)/30.4</f>
         <v>72.76315789473685</v>
       </c>
       <c r="AW116" s="54">
@@ -20803,14 +20804,14 @@
       <c r="AQ117" s="54"/>
       <c r="AR117" s="54"/>
       <c r="AS117" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT117" s="54"/>
       <c r="AU117" s="55">
         <v>43111</v>
       </c>
       <c r="AV117" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU117-B117)/30.4</f>
         <v>34.539473684210527</v>
       </c>
       <c r="AW117" s="54">
@@ -20954,14 +20955,14 @@
       <c r="AQ118" s="54"/>
       <c r="AR118" s="54"/>
       <c r="AS118" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT118" s="54"/>
       <c r="AU118" s="55">
         <v>43284</v>
       </c>
       <c r="AV118" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU118-B118)/30.4</f>
         <v>90.88815789473685</v>
       </c>
       <c r="AW118" s="54">
@@ -21107,14 +21108,14 @@
       <c r="AQ119" s="54"/>
       <c r="AR119" s="54"/>
       <c r="AS119" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT119" s="54"/>
       <c r="AU119" s="55">
         <v>43168</v>
       </c>
       <c r="AV119" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU119-B119)/30.4</f>
         <v>114.30921052631579</v>
       </c>
       <c r="AW119" s="54">
@@ -21262,14 +21263,14 @@
       <c r="AQ120" s="54"/>
       <c r="AR120" s="54"/>
       <c r="AS120" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT120" s="54"/>
       <c r="AU120" s="55">
         <v>43206</v>
       </c>
       <c r="AV120" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU120-B120)/30.4</f>
         <v>85.88815789473685</v>
       </c>
       <c r="AW120" s="54">
@@ -21415,14 +21416,14 @@
       <c r="AQ121" s="54"/>
       <c r="AR121" s="54"/>
       <c r="AS121" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT121" s="54"/>
       <c r="AU121" s="55">
         <v>43153</v>
       </c>
       <c r="AV121" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU121-B121)/30.4</f>
         <v>100.42763157894737</v>
       </c>
       <c r="AW121" s="54">
@@ -21568,14 +21569,14 @@
       <c r="AQ122" s="54"/>
       <c r="AR122" s="54"/>
       <c r="AS122" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT122" s="54"/>
       <c r="AU122" s="55">
         <v>43238</v>
       </c>
       <c r="AV122" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU122-B122)/30.4</f>
         <v>114.76973684210527</v>
       </c>
       <c r="AW122" s="54">
@@ -21723,14 +21724,14 @@
       <c r="AQ123" s="54"/>
       <c r="AR123" s="54"/>
       <c r="AS123" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT123" s="54"/>
       <c r="AU123" s="55">
         <v>42677</v>
       </c>
       <c r="AV123" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU123-B123)/30.4</f>
         <v>93.125</v>
       </c>
       <c r="AW123" s="54">
@@ -21878,14 +21879,14 @@
       <c r="AQ124" s="54"/>
       <c r="AR124" s="54"/>
       <c r="AS124" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT124" s="54"/>
       <c r="AU124" s="55">
         <v>43242</v>
       </c>
       <c r="AV124" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU124-B124)/30.4</f>
         <v>82.467105263157904</v>
       </c>
       <c r="AW124" s="54">
@@ -22033,14 +22034,14 @@
       <c r="AQ125" s="54"/>
       <c r="AR125" s="54"/>
       <c r="AS125" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT125" s="54"/>
       <c r="AU125" s="55">
         <v>43279</v>
       </c>
       <c r="AV125" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU125-B125)/30.4</f>
         <v>57.861842105263158</v>
       </c>
       <c r="AW125" s="54">
@@ -22186,14 +22187,14 @@
       <c r="AQ126" s="54"/>
       <c r="AR126" s="54"/>
       <c r="AS126" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT126" s="54"/>
       <c r="AU126" s="55">
         <v>43172</v>
       </c>
       <c r="AV126" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU126-B126)/30.4</f>
         <v>61.315789473684212</v>
       </c>
       <c r="AW126" s="54">
@@ -22337,14 +22338,14 @@
       <c r="AQ127" s="54"/>
       <c r="AR127" s="54"/>
       <c r="AS127" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT127" s="54"/>
       <c r="AU127" s="55">
         <v>43241</v>
       </c>
       <c r="AV127" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU127-B127)/30.4</f>
         <v>32.565789473684212</v>
       </c>
       <c r="AW127" s="54">
@@ -22490,14 +22491,14 @@
       <c r="AQ128" s="54"/>
       <c r="AR128" s="54"/>
       <c r="AS128" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT128" s="54"/>
       <c r="AU128" s="55">
         <v>43249</v>
       </c>
       <c r="AV128" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU128-B128)/30.4</f>
         <v>112.13815789473685</v>
       </c>
       <c r="AW128" s="54">
@@ -22645,14 +22646,14 @@
       <c r="AQ129" s="54"/>
       <c r="AR129" s="54"/>
       <c r="AS129" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT129" s="54"/>
       <c r="AU129" s="55">
         <v>43230</v>
       </c>
       <c r="AV129" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU129-B129)/30.4</f>
         <v>75.789473684210535</v>
       </c>
       <c r="AW129" s="54">
@@ -22800,14 +22801,14 @@
       <c r="AQ130" s="54"/>
       <c r="AR130" s="54"/>
       <c r="AS130" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT130" s="54"/>
       <c r="AU130" s="55">
         <v>43224</v>
       </c>
       <c r="AV130" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU130-B130)/30.4</f>
         <v>105.32894736842105</v>
       </c>
       <c r="AW130" s="54">
@@ -22953,14 +22954,14 @@
       <c r="AQ131" s="54"/>
       <c r="AR131" s="54"/>
       <c r="AS131" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT131" s="54"/>
       <c r="AU131" s="55">
         <v>43272</v>
       </c>
       <c r="AV131" s="64">
-        <f t="shared" si="1"/>
+        <f>(AU131-B131)/30.4</f>
         <v>80.592105263157904</v>
       </c>
       <c r="AW131" s="54">
@@ -23106,14 +23107,14 @@
       <c r="AQ132" s="56"/>
       <c r="AR132" s="54"/>
       <c r="AS132" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT132" s="54"/>
       <c r="AU132" s="55">
         <v>43171</v>
       </c>
       <c r="AV132" s="64">
-        <f t="shared" ref="AV132:AV195" si="2">(AU132-B132)/30.4</f>
+        <f>(AU132-B132)/30.4</f>
         <v>96.151315789473685</v>
       </c>
       <c r="AW132" s="54">
@@ -23261,14 +23262,14 @@
       <c r="AQ133" s="54"/>
       <c r="AR133" s="54"/>
       <c r="AS133" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT133" s="54"/>
       <c r="AU133" s="55">
         <v>43178</v>
       </c>
       <c r="AV133" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU133-B133)/30.4</f>
         <v>46.381578947368425</v>
       </c>
       <c r="AW133" s="54">
@@ -23414,14 +23415,14 @@
       <c r="AQ134" s="54"/>
       <c r="AR134" s="54"/>
       <c r="AS134" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT134" s="54"/>
       <c r="AU134" s="55">
         <v>43280</v>
       </c>
       <c r="AV134" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU134-B134)/30.4</f>
         <v>78.125</v>
       </c>
       <c r="AW134" s="54">
@@ -23567,14 +23568,14 @@
       <c r="AQ135" s="54"/>
       <c r="AR135" s="54"/>
       <c r="AS135" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT135" s="54"/>
       <c r="AU135" s="55">
         <v>42985</v>
       </c>
       <c r="AV135" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU135-B135)/30.4</f>
         <v>61.151315789473685</v>
       </c>
       <c r="AW135" s="54">
@@ -23718,14 +23719,14 @@
       <c r="AQ136" s="54"/>
       <c r="AR136" s="54"/>
       <c r="AS136" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT136" s="54"/>
       <c r="AU136" s="55">
         <v>43167</v>
       </c>
       <c r="AV136" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU136-B136)/30.4</f>
         <v>99.342105263157904</v>
       </c>
       <c r="AW136" s="54">
@@ -23869,14 +23870,14 @@
       <c r="AQ137" s="54"/>
       <c r="AR137" s="54"/>
       <c r="AS137" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT137" s="54"/>
       <c r="AU137" s="55">
         <v>43230</v>
       </c>
       <c r="AV137" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU137-B137)/30.4</f>
         <v>55.822368421052637</v>
       </c>
       <c r="AW137" s="54">
@@ -24022,14 +24023,14 @@
       <c r="AQ138" s="54"/>
       <c r="AR138" s="54"/>
       <c r="AS138" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT138" s="54"/>
       <c r="AU138" s="55">
         <v>43153</v>
       </c>
       <c r="AV138" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU138-B138)/30.4</f>
         <v>34.144736842105267</v>
       </c>
       <c r="AW138" s="54">
@@ -24175,14 +24176,14 @@
       <c r="AQ139" s="54"/>
       <c r="AR139" s="54"/>
       <c r="AS139" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT139" s="54"/>
       <c r="AU139" s="55">
         <v>43119</v>
       </c>
       <c r="AV139" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU139-B139)/30.4</f>
         <v>50.328947368421055</v>
       </c>
       <c r="AW139" s="54">
@@ -24328,14 +24329,14 @@
       <c r="AQ140" s="54"/>
       <c r="AR140" s="54"/>
       <c r="AS140" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT140" s="54"/>
       <c r="AU140" s="55">
         <v>43055</v>
       </c>
       <c r="AV140" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU140-B140)/30.4</f>
         <v>52.30263157894737</v>
       </c>
       <c r="AW140" s="54">
@@ -24479,14 +24480,14 @@
       <c r="AQ141" s="54"/>
       <c r="AR141" s="54"/>
       <c r="AS141" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT141" s="54"/>
       <c r="AU141" s="55">
         <v>43140</v>
       </c>
       <c r="AV141" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU141-B141)/30.4</f>
         <v>114.24342105263159</v>
       </c>
       <c r="AW141" s="54">
@@ -24632,14 +24633,14 @@
       <c r="AQ142" s="54"/>
       <c r="AR142" s="54"/>
       <c r="AS142" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT142" s="54"/>
       <c r="AU142" s="55">
         <v>43153</v>
       </c>
       <c r="AV142" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU142-B142)/30.4</f>
         <v>83.453947368421055</v>
       </c>
       <c r="AW142" s="54">
@@ -24785,14 +24786,14 @@
       <c r="AQ143" s="54"/>
       <c r="AR143" s="54"/>
       <c r="AS143" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT143" s="54"/>
       <c r="AU143" s="55">
         <v>43123</v>
       </c>
       <c r="AV143" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU143-B143)/30.4</f>
         <v>65.789473684210535</v>
       </c>
       <c r="AW143" s="54">
@@ -24936,14 +24937,14 @@
       <c r="AQ144" s="54"/>
       <c r="AR144" s="54"/>
       <c r="AS144" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT144" s="54"/>
       <c r="AU144" s="55">
         <v>43266</v>
       </c>
       <c r="AV144" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU144-B144)/30.4</f>
         <v>72.368421052631589</v>
       </c>
       <c r="AW144" s="54">
@@ -25087,14 +25088,14 @@
       <c r="AQ145" s="56"/>
       <c r="AR145" s="54"/>
       <c r="AS145" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT145" s="54"/>
       <c r="AU145" s="55">
         <v>43062</v>
       </c>
       <c r="AV145" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU145-B145)/30.4</f>
         <v>80.69078947368422</v>
       </c>
       <c r="AW145" s="54">
@@ -25240,14 +25241,14 @@
       <c r="AQ146" s="54"/>
       <c r="AR146" s="54"/>
       <c r="AS146" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT146" s="54"/>
       <c r="AU146" s="55">
         <v>43083</v>
       </c>
       <c r="AV146" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU146-B146)/30.4</f>
         <v>71.184210526315795</v>
       </c>
       <c r="AW146" s="54">
@@ -25393,14 +25394,14 @@
       <c r="AQ147" s="54"/>
       <c r="AR147" s="54"/>
       <c r="AS147" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT147" s="54"/>
       <c r="AU147" s="55">
         <v>43123</v>
       </c>
       <c r="AV147" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU147-B147)/30.4</f>
         <v>39.80263157894737</v>
       </c>
       <c r="AW147" s="54">
@@ -25544,14 +25545,14 @@
       <c r="AQ148" s="54"/>
       <c r="AR148" s="54"/>
       <c r="AS148" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT148" s="54"/>
       <c r="AU148" s="55">
         <v>43280</v>
       </c>
       <c r="AV148" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU148-B148)/30.4</f>
         <v>103.7171052631579</v>
       </c>
       <c r="AW148" s="54">
@@ -25697,14 +25698,14 @@
       <c r="AQ149" s="54"/>
       <c r="AR149" s="54"/>
       <c r="AS149" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT149" s="54"/>
       <c r="AU149" s="55">
         <v>43210</v>
       </c>
       <c r="AV149" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU149-B149)/30.4</f>
         <v>34.17763157894737</v>
       </c>
       <c r="AW149" s="54">
@@ -25848,14 +25849,14 @@
       <c r="AQ150" s="54"/>
       <c r="AR150" s="54"/>
       <c r="AS150" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT150" s="54"/>
       <c r="AU150" s="55">
         <v>42796</v>
       </c>
       <c r="AV150" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU150-B150)/30.4</f>
         <v>47.072368421052637</v>
       </c>
       <c r="AW150" s="54">
@@ -26001,14 +26002,14 @@
       <c r="AQ151" s="54"/>
       <c r="AR151" s="54"/>
       <c r="AS151" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT151" s="54"/>
       <c r="AU151" s="55">
         <v>42975</v>
       </c>
       <c r="AV151" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU151-B151)/30.4</f>
         <v>34.276315789473685</v>
       </c>
       <c r="AW151" s="54">
@@ -26156,14 +26157,14 @@
       <c r="AQ152" s="54"/>
       <c r="AR152" s="54"/>
       <c r="AS152" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT152" s="54"/>
       <c r="AU152" s="55">
         <v>43174</v>
       </c>
       <c r="AV152" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU152-B152)/30.4</f>
         <v>48.848684210526315</v>
       </c>
       <c r="AW152" s="54">
@@ -26307,14 +26308,14 @@
       <c r="AQ153" s="54"/>
       <c r="AR153" s="54"/>
       <c r="AS153" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT153" s="54"/>
       <c r="AU153" s="55">
         <v>43139</v>
       </c>
       <c r="AV153" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU153-B153)/30.4</f>
         <v>50.263157894736842</v>
       </c>
       <c r="AW153" s="54">
@@ -26462,14 +26463,14 @@
       <c r="AQ154" s="54"/>
       <c r="AR154" s="54"/>
       <c r="AS154" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT154" s="54"/>
       <c r="AU154" s="55">
         <v>43256</v>
       </c>
       <c r="AV154" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU154-B154)/30.4</f>
         <v>41.67763157894737</v>
       </c>
       <c r="AW154" s="59"/>
@@ -26611,14 +26612,14 @@
       <c r="AQ155" s="54"/>
       <c r="AR155" s="54"/>
       <c r="AS155" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT155" s="54"/>
       <c r="AU155" s="55">
         <v>43084</v>
       </c>
       <c r="AV155" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU155-B155)/30.4</f>
         <v>83.256578947368425</v>
       </c>
       <c r="AW155" s="54">
@@ -26764,14 +26765,14 @@
       <c r="AQ156" s="54"/>
       <c r="AR156" s="54"/>
       <c r="AS156" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT156" s="54"/>
       <c r="AU156" s="55">
         <v>40903</v>
       </c>
       <c r="AV156" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU156-B156)/30.4</f>
         <v>12.796052631578949</v>
       </c>
       <c r="AW156" s="54">
@@ -26919,14 +26920,14 @@
       <c r="AQ157" s="54"/>
       <c r="AR157" s="54"/>
       <c r="AS157" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT157" s="54"/>
       <c r="AU157" s="55">
         <v>43259</v>
       </c>
       <c r="AV157" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU157-B157)/30.4</f>
         <v>32.236842105263158</v>
       </c>
       <c r="AW157" s="54">
@@ -27074,14 +27075,14 @@
       <c r="AQ158" s="54"/>
       <c r="AR158" s="54"/>
       <c r="AS158" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT158" s="54"/>
       <c r="AU158" s="55">
         <v>43151</v>
       </c>
       <c r="AV158" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU158-B158)/30.4</f>
         <v>62.598684210526322</v>
       </c>
       <c r="AW158" s="54">
@@ -27227,14 +27228,14 @@
       <c r="AQ159" s="54"/>
       <c r="AR159" s="54"/>
       <c r="AS159" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT159" s="54"/>
       <c r="AU159" s="55">
         <v>43053</v>
       </c>
       <c r="AV159" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU159-B159)/30.4</f>
         <v>35.65789473684211</v>
       </c>
       <c r="AW159" s="54">
@@ -27380,14 +27381,14 @@
       <c r="AQ160" s="54"/>
       <c r="AR160" s="54"/>
       <c r="AS160" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT160" s="54"/>
       <c r="AU160" s="55">
         <v>43284</v>
       </c>
       <c r="AV160" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU160-B160)/30.4</f>
         <v>49.013157894736842</v>
       </c>
       <c r="AW160" s="54">
@@ -27535,14 +27536,14 @@
       <c r="AQ161" s="54"/>
       <c r="AR161" s="54"/>
       <c r="AS161" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT161" s="54"/>
       <c r="AU161" s="55">
         <v>43125</v>
       </c>
       <c r="AV161" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU161-B161)/30.4</f>
         <v>33.026315789473685</v>
       </c>
       <c r="AW161" s="54">
@@ -27690,14 +27691,14 @@
       <c r="AQ162" s="54"/>
       <c r="AR162" s="54"/>
       <c r="AS162" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT162" s="54"/>
       <c r="AU162" s="55">
         <v>43027</v>
       </c>
       <c r="AV162" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU162-B162)/30.4</f>
         <v>38.519736842105267</v>
       </c>
       <c r="AW162" s="54">
@@ -27841,14 +27842,14 @@
       <c r="AQ163" s="54"/>
       <c r="AR163" s="54"/>
       <c r="AS163" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT163" s="54"/>
       <c r="AU163" s="55">
         <v>43076</v>
       </c>
       <c r="AV163" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU163-B163)/30.4</f>
         <v>102.79605263157895</v>
       </c>
       <c r="AW163" s="54">
@@ -27996,14 +27997,14 @@
       <c r="AQ164" s="54"/>
       <c r="AR164" s="54"/>
       <c r="AS164" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT164" s="54"/>
       <c r="AU164" s="55">
         <v>43139</v>
       </c>
       <c r="AV164" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU164-B164)/30.4</f>
         <v>45.164473684210527</v>
       </c>
       <c r="AW164" s="54">
@@ -28149,14 +28150,14 @@
       <c r="AQ165" s="54"/>
       <c r="AR165" s="54"/>
       <c r="AS165" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT165" s="54"/>
       <c r="AU165" s="55">
         <v>43195</v>
       </c>
       <c r="AV165" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU165-B165)/30.4</f>
         <v>75.526315789473685</v>
       </c>
       <c r="AW165" s="54">
@@ -28302,14 +28303,14 @@
       <c r="AQ166" s="54"/>
       <c r="AR166" s="54"/>
       <c r="AS166" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT166" s="54"/>
       <c r="AU166" s="55">
         <v>43069</v>
       </c>
       <c r="AV166" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU166-B166)/30.4</f>
         <v>54.671052631578952</v>
       </c>
       <c r="AW166" s="54">
@@ -28453,14 +28454,14 @@
       <c r="AQ167" s="54"/>
       <c r="AR167" s="54"/>
       <c r="AS167" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT167" s="54"/>
       <c r="AU167" s="55">
         <v>42523</v>
       </c>
       <c r="AV167" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU167-B167)/30.4</f>
         <v>26.809210526315791</v>
       </c>
       <c r="AW167" s="54">
@@ -28606,14 +28607,14 @@
       <c r="AQ168" s="54"/>
       <c r="AR168" s="54"/>
       <c r="AS168" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT168" s="54"/>
       <c r="AU168" s="55">
         <v>43088</v>
       </c>
       <c r="AV168" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU168-B168)/30.4</f>
         <v>45.131578947368425</v>
       </c>
       <c r="AW168" s="54">
@@ -28759,14 +28760,14 @@
       <c r="AQ169" s="54"/>
       <c r="AR169" s="54"/>
       <c r="AS169" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT169" s="54"/>
       <c r="AU169" s="55">
         <v>43258</v>
       </c>
       <c r="AV169" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU169-B169)/30.4</f>
         <v>60.42763157894737</v>
       </c>
       <c r="AW169" s="54">
@@ -28914,14 +28915,14 @@
       <c r="AQ170" s="54"/>
       <c r="AR170" s="54"/>
       <c r="AS170" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT170" s="54"/>
       <c r="AU170" s="55">
         <v>43244</v>
       </c>
       <c r="AV170" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU170-B170)/30.4</f>
         <v>72.171052631578945</v>
       </c>
       <c r="AW170" s="54">
@@ -29069,14 +29070,14 @@
       <c r="AQ171" s="54"/>
       <c r="AR171" s="54"/>
       <c r="AS171" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT171" s="54"/>
       <c r="AU171" s="55">
         <v>43129</v>
       </c>
       <c r="AV171" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU171-B171)/30.4</f>
         <v>36.381578947368425</v>
       </c>
       <c r="AW171" s="54">
@@ -29224,14 +29225,14 @@
       <c r="AQ172" s="54"/>
       <c r="AR172" s="54"/>
       <c r="AS172" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT172" s="54"/>
       <c r="AU172" s="55">
         <v>43067</v>
       </c>
       <c r="AV172" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU172-B172)/30.4</f>
         <v>41.611842105263158</v>
       </c>
       <c r="AW172" s="54">
@@ -29375,14 +29376,14 @@
       <c r="AQ173" s="54"/>
       <c r="AR173" s="54"/>
       <c r="AS173" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT173" s="54"/>
       <c r="AU173" s="55">
         <v>41786</v>
       </c>
       <c r="AV173" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU173-B173)/30.4</f>
         <v>35.723684210526315</v>
       </c>
       <c r="AW173" s="54">
@@ -29526,14 +29527,14 @@
       <c r="AQ174" s="54"/>
       <c r="AR174" s="54"/>
       <c r="AS174" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT174" s="54"/>
       <c r="AU174" s="55">
         <v>42972</v>
       </c>
       <c r="AV174" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU174-B174)/30.4</f>
         <v>69.83552631578948</v>
       </c>
       <c r="AW174" s="54">
@@ -29679,14 +29680,14 @@
       <c r="AQ175" s="54"/>
       <c r="AR175" s="54"/>
       <c r="AS175" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT175" s="54"/>
       <c r="AU175" s="55">
         <v>43200</v>
       </c>
       <c r="AV175" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU175-B175)/30.4</f>
         <v>37.993421052631582</v>
       </c>
       <c r="AW175" s="54">
@@ -29832,14 +29833,14 @@
       <c r="AQ176" s="54"/>
       <c r="AR176" s="54"/>
       <c r="AS176" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT176" s="54"/>
       <c r="AU176" s="55">
         <v>41863</v>
       </c>
       <c r="AV176" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU176-B176)/30.4</f>
         <v>48.15789473684211</v>
       </c>
       <c r="AW176" s="54">
@@ -29985,14 +29986,14 @@
       <c r="AQ177" s="54"/>
       <c r="AR177" s="54"/>
       <c r="AS177" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT177" s="54"/>
       <c r="AU177" s="55">
         <v>41297</v>
       </c>
       <c r="AV177" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU177-B177)/30.4</f>
         <v>24.243421052631579</v>
       </c>
       <c r="AW177" s="54">
@@ -30136,14 +30137,14 @@
       <c r="AQ178" s="54"/>
       <c r="AR178" s="54"/>
       <c r="AS178" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT178" s="54"/>
       <c r="AU178" s="55">
         <v>41177</v>
       </c>
       <c r="AV178" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU178-B178)/30.4</f>
         <v>42.171052631578952</v>
       </c>
       <c r="AW178" s="54">
@@ -30289,14 +30290,14 @@
       <c r="AQ179" s="54"/>
       <c r="AR179" s="54"/>
       <c r="AS179" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT179" s="54"/>
       <c r="AU179" s="55">
         <v>43250</v>
       </c>
       <c r="AV179" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU179-B179)/30.4</f>
         <v>49.572368421052637</v>
       </c>
       <c r="AW179" s="54">
@@ -30440,14 +30441,14 @@
       <c r="AQ180" s="54"/>
       <c r="AR180" s="54"/>
       <c r="AS180" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT180" s="54"/>
       <c r="AU180" s="55">
         <v>43209</v>
       </c>
       <c r="AV180" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU180-B180)/30.4</f>
         <v>58.35526315789474</v>
       </c>
       <c r="AW180" s="54">
@@ -30593,14 +30594,14 @@
       <c r="AQ181" s="54"/>
       <c r="AR181" s="54"/>
       <c r="AS181" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT181" s="54"/>
       <c r="AU181" s="65">
         <v>43748</v>
       </c>
       <c r="AV181" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU181-B181)/30.4</f>
         <v>77.203947368421055</v>
       </c>
       <c r="AW181" s="54">
@@ -30746,14 +30747,14 @@
       <c r="AQ182" s="54"/>
       <c r="AR182" s="54"/>
       <c r="AS182" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT182" s="54"/>
       <c r="AU182" s="55">
         <v>42908</v>
       </c>
       <c r="AV182" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU182-B182)/30.4</f>
         <v>41.085526315789473</v>
       </c>
       <c r="AW182" s="54">
@@ -30899,14 +30900,14 @@
       <c r="AQ183" s="54"/>
       <c r="AR183" s="54"/>
       <c r="AS183" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT183" s="54"/>
       <c r="AU183" s="55">
         <v>42920</v>
       </c>
       <c r="AV183" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU183-B183)/30.4</f>
         <v>65.88815789473685</v>
       </c>
       <c r="AW183" s="54">
@@ -31052,14 +31053,14 @@
       <c r="AQ184" s="54"/>
       <c r="AR184" s="54"/>
       <c r="AS184" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT184" s="54"/>
       <c r="AU184" s="55">
         <v>43175</v>
       </c>
       <c r="AV184" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU184-B184)/30.4</f>
         <v>100.03289473684211</v>
       </c>
       <c r="AW184" s="54">
@@ -31205,14 +31206,14 @@
       <c r="AQ185" s="54"/>
       <c r="AR185" s="54"/>
       <c r="AS185" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT185" s="54"/>
       <c r="AU185" s="55">
         <v>40263</v>
       </c>
       <c r="AV185" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU185-B185)/30.4</f>
         <v>2.2039473684210527</v>
       </c>
       <c r="AW185" s="54">
@@ -31360,14 +31361,14 @@
       <c r="AQ186" s="54"/>
       <c r="AR186" s="54"/>
       <c r="AS186" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT186" s="54"/>
       <c r="AU186" s="55">
         <v>43161</v>
       </c>
       <c r="AV186" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU186-B186)/30.4</f>
         <v>44.967105263157897</v>
       </c>
       <c r="AW186" s="54">
@@ -31515,14 +31516,14 @@
       <c r="AQ187" s="54"/>
       <c r="AR187" s="54"/>
       <c r="AS187" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT187" s="54"/>
       <c r="AU187" s="55">
         <v>43025</v>
       </c>
       <c r="AV187" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU187-B187)/30.4</f>
         <v>28.125</v>
       </c>
       <c r="AW187" s="54">
@@ -31668,14 +31669,14 @@
       <c r="AQ188" s="54"/>
       <c r="AR188" s="54"/>
       <c r="AS188" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT188" s="54"/>
       <c r="AU188" s="55">
         <v>41414</v>
       </c>
       <c r="AV188" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU188-B188)/30.4</f>
         <v>7.5328947368421053</v>
       </c>
       <c r="AW188" s="54">
@@ -31821,14 +31822,14 @@
       <c r="AQ189" s="54"/>
       <c r="AR189" s="54"/>
       <c r="AS189" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT189" s="54"/>
       <c r="AU189" s="55">
         <v>43069</v>
       </c>
       <c r="AV189" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU189-B189)/30.4</f>
         <v>45.361842105263158</v>
       </c>
       <c r="AW189" s="54">
@@ -31974,14 +31975,14 @@
       <c r="AQ190" s="54"/>
       <c r="AR190" s="54"/>
       <c r="AS190" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT190" s="54"/>
       <c r="AU190" s="55">
         <v>43279</v>
       </c>
       <c r="AV190" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU190-B190)/30.4</f>
         <v>72.30263157894737</v>
       </c>
       <c r="AW190" s="54">
@@ -32129,14 +32130,14 @@
       <c r="AQ191" s="54"/>
       <c r="AR191" s="54"/>
       <c r="AS191" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT191" s="54"/>
       <c r="AU191" s="55">
         <v>43213</v>
       </c>
       <c r="AV191" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU191-B191)/30.4</f>
         <v>65.85526315789474</v>
       </c>
       <c r="AW191" s="54">
@@ -32284,14 +32285,14 @@
       <c r="AQ192" s="54"/>
       <c r="AR192" s="54"/>
       <c r="AS192" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT192" s="54"/>
       <c r="AU192" s="55">
         <v>43039</v>
       </c>
       <c r="AV192" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU192-B192)/30.4</f>
         <v>68.421052631578945</v>
       </c>
       <c r="AW192" s="54">
@@ -32437,14 +32438,14 @@
       <c r="AQ193" s="54"/>
       <c r="AR193" s="54"/>
       <c r="AS193" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT193" s="54"/>
       <c r="AU193" s="55">
         <v>43035</v>
       </c>
       <c r="AV193" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU193-B193)/30.4</f>
         <v>47.5</v>
       </c>
       <c r="AW193" s="54">
@@ -32590,14 +32591,14 @@
       <c r="AQ194" s="54"/>
       <c r="AR194" s="54"/>
       <c r="AS194" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT194" s="54"/>
       <c r="AU194" s="55">
         <v>43007</v>
       </c>
       <c r="AV194" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU194-B194)/30.4</f>
         <v>67.56578947368422</v>
       </c>
       <c r="AW194" s="54">
@@ -32743,14 +32744,14 @@
       <c r="AQ195" s="54"/>
       <c r="AR195" s="54"/>
       <c r="AS195" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT195" s="54"/>
       <c r="AU195" s="55">
         <v>43266</v>
       </c>
       <c r="AV195" s="64">
-        <f t="shared" si="2"/>
+        <f>(AU195-B195)/30.4</f>
         <v>41.940789473684212</v>
       </c>
       <c r="AW195" s="54">
@@ -32896,14 +32897,14 @@
       <c r="AQ196" s="54"/>
       <c r="AR196" s="54"/>
       <c r="AS196" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT196" s="54"/>
       <c r="AU196" s="55">
         <v>43063</v>
       </c>
       <c r="AV196" s="64">
-        <f t="shared" ref="AV196:AV259" si="3">(AU196-B196)/30.4</f>
+        <f>(AU196-B196)/30.4</f>
         <v>43.815789473684212</v>
       </c>
       <c r="AW196" s="54">
@@ -33047,14 +33048,14 @@
       <c r="AQ197" s="54"/>
       <c r="AR197" s="54"/>
       <c r="AS197" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT197" s="54"/>
       <c r="AU197" s="55">
         <v>42964</v>
       </c>
       <c r="AV197" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU197-B197)/30.4</f>
         <v>29.572368421052634</v>
       </c>
       <c r="AW197" s="54">
@@ -33202,14 +33203,14 @@
       <c r="AQ198" s="54"/>
       <c r="AR198" s="54"/>
       <c r="AS198" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT198" s="54"/>
       <c r="AU198" s="55">
         <v>43046</v>
       </c>
       <c r="AV198" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU198-B198)/30.4</f>
         <v>41.611842105263158</v>
       </c>
       <c r="AW198" s="54">
@@ -33355,14 +33356,14 @@
       <c r="AQ199" s="54"/>
       <c r="AR199" s="54"/>
       <c r="AS199" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT199" s="54"/>
       <c r="AU199" s="55">
         <v>43238</v>
       </c>
       <c r="AV199" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU199-B199)/30.4</f>
         <v>75</v>
       </c>
       <c r="AW199" s="54">
@@ -33508,14 +33509,14 @@
       <c r="AQ200" s="54"/>
       <c r="AR200" s="54"/>
       <c r="AS200" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT200" s="54"/>
       <c r="AU200" s="55">
         <v>42999</v>
       </c>
       <c r="AV200" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU200-B200)/30.4</f>
         <v>22.368421052631579</v>
       </c>
       <c r="AW200" s="54">
@@ -33659,14 +33660,14 @@
       <c r="AQ201" s="54"/>
       <c r="AR201" s="54"/>
       <c r="AS201" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT201" s="54"/>
       <c r="AU201" s="55">
         <v>40791</v>
       </c>
       <c r="AV201" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU201-B201)/30.4</f>
         <v>27.697368421052634</v>
       </c>
       <c r="AW201" s="54">
@@ -33812,14 +33813,14 @@
       <c r="AQ202" s="54"/>
       <c r="AR202" s="54"/>
       <c r="AS202" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT202" s="54"/>
       <c r="AU202" s="55">
         <v>43104</v>
       </c>
       <c r="AV202" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU202-B202)/30.4</f>
         <v>30.197368421052634</v>
       </c>
       <c r="AW202" s="54">
@@ -33967,14 +33968,14 @@
       <c r="AQ203" s="54"/>
       <c r="AR203" s="54"/>
       <c r="AS203" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT203" s="54"/>
       <c r="AU203" s="55">
         <v>43182</v>
       </c>
       <c r="AV203" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU203-B203)/30.4</f>
         <v>35.361842105263158</v>
       </c>
       <c r="AW203" s="54">
@@ -34120,14 +34121,14 @@
       <c r="AQ204" s="54"/>
       <c r="AR204" s="54"/>
       <c r="AS204" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT204" s="54"/>
       <c r="AU204" s="55">
         <v>43292</v>
       </c>
       <c r="AV204" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU204-B204)/30.4</f>
         <v>59.17763157894737</v>
       </c>
       <c r="AW204" s="54">
@@ -34273,14 +34274,14 @@
       <c r="AQ205" s="54"/>
       <c r="AR205" s="54"/>
       <c r="AS205" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT205" s="54"/>
       <c r="AU205" s="55">
         <v>43151</v>
       </c>
       <c r="AV205" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU205-B205)/30.4</f>
         <v>53.55263157894737</v>
       </c>
       <c r="AW205" s="54">
@@ -34428,14 +34429,14 @@
       <c r="AQ206" s="54"/>
       <c r="AR206" s="54"/>
       <c r="AS206" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT206" s="54"/>
       <c r="AU206" s="55">
         <v>43160</v>
       </c>
       <c r="AV206" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU206-B206)/30.4</f>
         <v>27.92763157894737</v>
       </c>
       <c r="AW206" s="54">
@@ -34581,14 +34582,14 @@
       <c r="AQ207" s="54"/>
       <c r="AR207" s="54"/>
       <c r="AS207" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT207" s="54"/>
       <c r="AU207" s="55">
         <v>43287</v>
       </c>
       <c r="AV207" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU207-B207)/30.4</f>
         <v>38.125</v>
       </c>
       <c r="AW207" s="54">
@@ -34734,14 +34735,14 @@
       <c r="AQ208" s="54"/>
       <c r="AR208" s="54"/>
       <c r="AS208" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT208" s="54"/>
       <c r="AU208" s="55">
         <v>43151</v>
       </c>
       <c r="AV208" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU208-B208)/30.4</f>
         <v>57.5</v>
       </c>
       <c r="AW208" s="54">
@@ -34889,14 +34890,14 @@
       <c r="AQ209" s="54"/>
       <c r="AR209" s="54"/>
       <c r="AS209" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT209" s="54"/>
       <c r="AU209" s="55">
         <v>43277</v>
       </c>
       <c r="AV209" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU209-B209)/30.4</f>
         <v>60.493421052631582</v>
       </c>
       <c r="AW209" s="54">
@@ -35044,14 +35045,14 @@
       <c r="AQ210" s="54"/>
       <c r="AR210" s="54"/>
       <c r="AS210" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT210" s="54"/>
       <c r="AU210" s="55">
         <v>43269</v>
       </c>
       <c r="AV210" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU210-B210)/30.4</f>
         <v>67.171052631578945</v>
       </c>
       <c r="AW210" s="54">
@@ -35197,14 +35198,14 @@
       <c r="AQ211" s="54"/>
       <c r="AR211" s="54"/>
       <c r="AS211" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT211" s="54"/>
       <c r="AU211" s="55">
         <v>41039</v>
       </c>
       <c r="AV211" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU211-B211)/30.4</f>
         <v>3.4539473684210527</v>
       </c>
       <c r="AW211" s="54">
@@ -35350,14 +35351,14 @@
       <c r="AQ212" s="54"/>
       <c r="AR212" s="54"/>
       <c r="AS212" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT212" s="54"/>
       <c r="AU212" s="55">
         <v>43066</v>
       </c>
       <c r="AV212" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU212-B212)/30.4</f>
         <v>25.723684210526319</v>
       </c>
       <c r="AW212" s="54">
@@ -35503,14 +35504,14 @@
       <c r="AQ213" s="54"/>
       <c r="AR213" s="54"/>
       <c r="AS213" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT213" s="54"/>
       <c r="AU213" s="55">
         <v>40233</v>
       </c>
       <c r="AV213" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU213-B213)/30.4</f>
         <v>4.5723684210526319</v>
       </c>
       <c r="AW213" s="54">
@@ -35654,14 +35655,14 @@
       <c r="AQ214" s="54"/>
       <c r="AR214" s="54"/>
       <c r="AS214" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT214" s="54"/>
       <c r="AU214" s="55">
         <v>42733</v>
       </c>
       <c r="AV214" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU214-B214)/30.4</f>
         <v>91.44736842105263</v>
       </c>
       <c r="AW214" s="54">
@@ -35807,14 +35808,14 @@
       <c r="AQ215" s="54"/>
       <c r="AR215" s="54"/>
       <c r="AS215" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT215" s="54"/>
       <c r="AU215" s="55">
         <v>43129</v>
       </c>
       <c r="AV215" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU215-B215)/30.4</f>
         <v>38.223684210526315</v>
       </c>
       <c r="AW215" s="54">
@@ -35960,14 +35961,14 @@
       <c r="AQ216" s="54"/>
       <c r="AR216" s="54"/>
       <c r="AS216" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT216" s="54"/>
       <c r="AU216" s="55">
         <v>43126</v>
       </c>
       <c r="AV216" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU216-B216)/30.4</f>
         <v>28.618421052631579</v>
       </c>
       <c r="AW216" s="54">
@@ -36115,14 +36116,14 @@
       <c r="AQ217" s="54"/>
       <c r="AR217" s="54"/>
       <c r="AS217" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT217" s="54"/>
       <c r="AU217" s="65">
         <v>43756</v>
       </c>
       <c r="AV217" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU217-B217)/30.4</f>
         <v>83.881578947368425</v>
       </c>
       <c r="AW217" s="54">
@@ -36268,14 +36269,14 @@
       <c r="AQ218" s="54"/>
       <c r="AR218" s="54"/>
       <c r="AS218" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT218" s="54"/>
       <c r="AU218" s="55">
         <v>42727</v>
       </c>
       <c r="AV218" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU218-B218)/30.4</f>
         <v>52.30263157894737</v>
       </c>
       <c r="AW218" s="54">
@@ -36419,14 +36420,14 @@
       <c r="AQ219" s="54"/>
       <c r="AR219" s="54"/>
       <c r="AS219" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT219" s="54"/>
       <c r="AU219" s="55">
         <v>43049</v>
       </c>
       <c r="AV219" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU219-B219)/30.4</f>
         <v>74.473684210526315</v>
       </c>
       <c r="AW219" s="54">
@@ -36574,14 +36575,14 @@
       <c r="AQ220" s="54"/>
       <c r="AR220" s="54"/>
       <c r="AS220" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT220" s="54"/>
       <c r="AU220" s="55">
         <v>43158</v>
       </c>
       <c r="AV220" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU220-B220)/30.4</f>
         <v>27.434210526315791</v>
       </c>
       <c r="AW220" s="54">
@@ -36727,14 +36728,14 @@
       <c r="AQ221" s="54"/>
       <c r="AR221" s="54"/>
       <c r="AS221" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT221" s="54"/>
       <c r="AU221" s="55">
         <v>42993</v>
       </c>
       <c r="AV221" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU221-B221)/30.4</f>
         <v>59.506578947368425</v>
       </c>
       <c r="AW221" s="54">
@@ -36878,14 +36879,14 @@
       <c r="AQ222" s="54"/>
       <c r="AR222" s="54"/>
       <c r="AS222" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT222" s="54"/>
       <c r="AU222" s="55">
         <v>43168</v>
       </c>
       <c r="AV222" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU222-B222)/30.4</f>
         <v>42.960526315789473</v>
       </c>
       <c r="AW222" s="54">
@@ -37033,14 +37034,14 @@
       <c r="AQ223" s="54"/>
       <c r="AR223" s="54"/>
       <c r="AS223" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT223" s="54"/>
       <c r="AU223" s="55">
         <v>41787</v>
       </c>
       <c r="AV223" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU223-B223)/30.4</f>
         <v>16.414473684210527</v>
       </c>
       <c r="AW223" s="54">
@@ -37184,14 +37185,14 @@
       <c r="AQ224" s="54"/>
       <c r="AR224" s="54"/>
       <c r="AS224" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT224" s="54"/>
       <c r="AU224" s="55">
         <v>43231</v>
       </c>
       <c r="AV224" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU224-B224)/30.4</f>
         <v>77.664473684210535</v>
       </c>
       <c r="AW224" s="54">
@@ -37337,14 +37338,14 @@
       <c r="AQ225" s="54"/>
       <c r="AR225" s="54"/>
       <c r="AS225" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT225" s="54"/>
       <c r="AU225" s="55">
         <v>43165</v>
       </c>
       <c r="AV225" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU225-B225)/30.4</f>
         <v>107.76315789473685</v>
       </c>
       <c r="AW225" s="54">
@@ -37490,14 +37491,14 @@
       <c r="AQ226" s="54"/>
       <c r="AR226" s="54"/>
       <c r="AS226" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT226" s="54"/>
       <c r="AU226" s="55">
         <v>42433</v>
       </c>
       <c r="AV226" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU226-B226)/30.4</f>
         <v>16.414473684210527</v>
       </c>
       <c r="AW226" s="54">
@@ -37645,14 +37646,14 @@
       <c r="AQ227" s="54"/>
       <c r="AR227" s="54"/>
       <c r="AS227" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT227" s="54"/>
       <c r="AU227" s="55">
         <v>43256</v>
       </c>
       <c r="AV227" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU227-B227)/30.4</f>
         <v>48.15789473684211</v>
       </c>
       <c r="AW227" s="54">
@@ -37798,14 +37799,14 @@
       <c r="AQ228" s="54"/>
       <c r="AR228" s="54"/>
       <c r="AS228" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT228" s="54"/>
       <c r="AU228" s="55">
         <v>42586</v>
       </c>
       <c r="AV228" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU228-B228)/30.4</f>
         <v>34.868421052631582</v>
       </c>
       <c r="AW228" s="54">
@@ -37951,14 +37952,14 @@
       <c r="AQ229" s="54"/>
       <c r="AR229" s="54"/>
       <c r="AS229" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT229" s="54"/>
       <c r="AU229" s="55">
         <v>43230</v>
       </c>
       <c r="AV229" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU229-B229)/30.4</f>
         <v>74.243421052631589</v>
       </c>
       <c r="AW229" s="54">
@@ -38104,14 +38105,14 @@
       <c r="AQ230" s="54"/>
       <c r="AR230" s="54"/>
       <c r="AS230" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT230" s="54"/>
       <c r="AU230" s="55">
         <v>43237</v>
       </c>
       <c r="AV230" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU230-B230)/30.4</f>
         <v>77.236842105263165</v>
       </c>
       <c r="AW230" s="54">
@@ -38257,14 +38258,14 @@
       <c r="AQ231" s="54"/>
       <c r="AR231" s="54"/>
       <c r="AS231" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT231" s="54"/>
       <c r="AU231" s="55">
         <v>43066</v>
       </c>
       <c r="AV231" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU231-B231)/30.4</f>
         <v>53.421052631578952</v>
       </c>
       <c r="AW231" s="54">
@@ -38410,14 +38411,14 @@
       <c r="AQ232" s="54"/>
       <c r="AR232" s="54"/>
       <c r="AS232" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT232" s="54"/>
       <c r="AU232" s="55">
         <v>43035</v>
       </c>
       <c r="AV232" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU232-B232)/30.4</f>
         <v>65.42763157894737</v>
       </c>
       <c r="AW232" s="54">
@@ -38565,14 +38566,14 @@
       <c r="AQ233" s="54"/>
       <c r="AR233" s="54"/>
       <c r="AS233" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT233" s="54"/>
       <c r="AU233" s="55">
         <v>43286</v>
       </c>
       <c r="AV233" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU233-B233)/30.4</f>
         <v>57.368421052631582</v>
       </c>
       <c r="AW233" s="54">
@@ -38720,14 +38721,14 @@
       <c r="AQ234" s="54"/>
       <c r="AR234" s="54"/>
       <c r="AS234" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT234" s="54"/>
       <c r="AU234" s="55">
         <v>43224</v>
       </c>
       <c r="AV234" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU234-B234)/30.4</f>
         <v>57.138157894736842</v>
       </c>
       <c r="AW234" s="54">
@@ -38875,14 +38876,14 @@
       <c r="AQ235" s="54"/>
       <c r="AR235" s="54"/>
       <c r="AS235" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT235" s="54"/>
       <c r="AU235" s="55">
         <v>42383</v>
       </c>
       <c r="AV235" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU235-B235)/30.4</f>
         <v>65.723684210526315</v>
       </c>
       <c r="AW235" s="54">
@@ -39030,14 +39031,14 @@
       <c r="AQ236" s="54"/>
       <c r="AR236" s="54"/>
       <c r="AS236" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT236" s="54"/>
       <c r="AU236" s="55">
         <v>43195</v>
       </c>
       <c r="AV236" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU236-B236)/30.4</f>
         <v>76.01973684210526</v>
       </c>
       <c r="AW236" s="54">
@@ -39183,14 +39184,14 @@
       <c r="AQ237" s="54"/>
       <c r="AR237" s="54"/>
       <c r="AS237" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT237" s="54"/>
       <c r="AU237" s="55">
         <v>42271</v>
       </c>
       <c r="AV237" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU237-B237)/30.4</f>
         <v>46.513157894736842</v>
       </c>
       <c r="AW237" s="54">
@@ -39332,14 +39333,14 @@
       <c r="AQ238" s="54"/>
       <c r="AR238" s="54"/>
       <c r="AS238" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT238" s="54"/>
       <c r="AU238" s="55">
         <v>40067</v>
       </c>
       <c r="AV238" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU238-B238)/30.4</f>
         <v>2.6315789473684212</v>
       </c>
       <c r="AW238" s="54">
@@ -39483,14 +39484,14 @@
       <c r="AQ239" s="54"/>
       <c r="AR239" s="54"/>
       <c r="AS239" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT239" s="54"/>
       <c r="AU239" s="55">
         <v>43125</v>
       </c>
       <c r="AV239" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU239-B239)/30.4</f>
         <v>104.375</v>
       </c>
       <c r="AW239" s="54">
@@ -39636,14 +39637,14 @@
       <c r="AQ240" s="54"/>
       <c r="AR240" s="54"/>
       <c r="AS240" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT240" s="54"/>
       <c r="AU240" s="55">
         <v>42537</v>
       </c>
       <c r="AV240" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU240-B240)/30.4</f>
         <v>35.559210526315788</v>
       </c>
       <c r="AW240" s="54">
@@ -39791,14 +39792,14 @@
       <c r="AQ241" s="54"/>
       <c r="AR241" s="54"/>
       <c r="AS241" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT241" s="54"/>
       <c r="AU241" s="55">
         <v>43145</v>
       </c>
       <c r="AV241" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU241-B241)/30.4</f>
         <v>63.15789473684211</v>
       </c>
       <c r="AW241" s="54">
@@ -39942,14 +39943,14 @@
       <c r="AQ242" s="54"/>
       <c r="AR242" s="54"/>
       <c r="AS242" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT242" s="54"/>
       <c r="AU242" s="55">
         <v>40606</v>
       </c>
       <c r="AV242" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU242-B242)/30.4</f>
         <v>12.565789473684211</v>
       </c>
       <c r="AW242" s="54">
@@ -40095,14 +40096,14 @@
       <c r="AQ243" s="54"/>
       <c r="AR243" s="54"/>
       <c r="AS243" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT243" s="54"/>
       <c r="AU243" s="55">
         <v>43034</v>
       </c>
       <c r="AV243" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU243-B243)/30.4</f>
         <v>98.78289473684211</v>
       </c>
       <c r="AW243" s="54">
@@ -40246,14 +40247,14 @@
       <c r="AQ244" s="54"/>
       <c r="AR244" s="54"/>
       <c r="AS244" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT244" s="54"/>
       <c r="AU244" s="55">
         <v>43160</v>
       </c>
       <c r="AV244" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU244-B244)/30.4</f>
         <v>67.56578947368422</v>
       </c>
       <c r="AW244" s="54">
@@ -40399,14 +40400,14 @@
       <c r="AQ245" s="54"/>
       <c r="AR245" s="54"/>
       <c r="AS245" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT245" s="54"/>
       <c r="AU245" s="55">
         <v>42985</v>
       </c>
       <c r="AV245" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU245-B245)/30.4</f>
         <v>69.342105263157904</v>
       </c>
       <c r="AW245" s="54">
@@ -40552,14 +40553,14 @@
       <c r="AQ246" s="54"/>
       <c r="AR246" s="54"/>
       <c r="AS246" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT246" s="54"/>
       <c r="AU246" s="55">
         <v>43123</v>
       </c>
       <c r="AV246" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU246-B246)/30.4</f>
         <v>75.03289473684211</v>
       </c>
       <c r="AW246" s="54">
@@ -40705,14 +40706,14 @@
       <c r="AQ247" s="54"/>
       <c r="AR247" s="54"/>
       <c r="AS247" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT247" s="54"/>
       <c r="AU247" s="55">
         <v>43257</v>
       </c>
       <c r="AV247" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU247-B247)/30.4</f>
         <v>69.60526315789474</v>
       </c>
       <c r="AW247" s="54">
@@ -40858,14 +40859,14 @@
       <c r="AQ248" s="54"/>
       <c r="AR248" s="54"/>
       <c r="AS248" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT248" s="54"/>
       <c r="AU248" s="55">
         <v>42853</v>
       </c>
       <c r="AV248" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU248-B248)/30.4</f>
         <v>26.25</v>
       </c>
       <c r="AW248" s="54">
@@ -41011,14 +41012,14 @@
       <c r="AQ249" s="54"/>
       <c r="AR249" s="54"/>
       <c r="AS249" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT249" s="54"/>
       <c r="AU249" s="55">
         <v>41680</v>
       </c>
       <c r="AV249" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU249-B249)/30.4</f>
         <v>13.092105263157896</v>
       </c>
       <c r="AW249" s="54">
@@ -41166,14 +41167,14 @@
       <c r="AQ250" s="54"/>
       <c r="AR250" s="54"/>
       <c r="AS250" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT250" s="54"/>
       <c r="AU250" s="55">
         <v>42942</v>
       </c>
       <c r="AV250" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU250-B250)/30.4</f>
         <v>25.296052631578949</v>
       </c>
       <c r="AW250" s="54">
@@ -41319,14 +41320,14 @@
       <c r="AQ251" s="54"/>
       <c r="AR251" s="54"/>
       <c r="AS251" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT251" s="54"/>
       <c r="AU251" s="55">
         <v>42915</v>
       </c>
       <c r="AV251" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU251-B251)/30.4</f>
         <v>43.125</v>
       </c>
       <c r="AW251" s="54">
@@ -41472,14 +41473,14 @@
       <c r="AQ252" s="54"/>
       <c r="AR252" s="54"/>
       <c r="AS252" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT252" s="54"/>
       <c r="AU252" s="55">
         <v>43279</v>
       </c>
       <c r="AV252" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU252-B252)/30.4</f>
         <v>57.401315789473685</v>
       </c>
       <c r="AW252" s="54">
@@ -41625,14 +41626,14 @@
       <c r="AQ253" s="54"/>
       <c r="AR253" s="54"/>
       <c r="AS253" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT253" s="54"/>
       <c r="AU253" s="55">
         <v>43216</v>
       </c>
       <c r="AV253" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU253-B253)/30.4</f>
         <v>43.815789473684212</v>
       </c>
       <c r="AW253" s="54">
@@ -41778,14 +41779,14 @@
       <c r="AQ254" s="54"/>
       <c r="AR254" s="54"/>
       <c r="AS254" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AT254" s="54"/>
       <c r="AU254" s="55">
         <v>43272</v>
       </c>
       <c r="AV254" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU254-B254)/30.4</f>
         <v>39.210526315789473</v>
       </c>
       <c r="AW254" s="54">
@@ -41931,14 +41932,14 @@
         <v>7.24</v>
       </c>
       <c r="AS255" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT255" s="54"/>
       <c r="AU255" s="55">
         <v>43628</v>
       </c>
       <c r="AV255" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU255-B255)/30.4</f>
         <v>120.23026315789474</v>
       </c>
       <c r="AW255" s="54">
@@ -42106,14 +42107,14 @@
         <v>8.5</v>
       </c>
       <c r="AS256" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT256" s="54"/>
       <c r="AU256" s="55">
         <v>43486</v>
       </c>
       <c r="AV256" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU256-B256)/30.4</f>
         <v>44.210526315789473</v>
       </c>
       <c r="AW256" s="54">
@@ -42277,14 +42278,14 @@
         <v>14.2</v>
       </c>
       <c r="AS257" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT257" s="54"/>
       <c r="AU257" s="55">
         <v>43627</v>
       </c>
       <c r="AV257" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU257-B257)/30.4</f>
         <v>56.90789473684211</v>
       </c>
       <c r="AW257" s="54">
@@ -42452,14 +42453,14 @@
         <v>16.899999999999999</v>
       </c>
       <c r="AS258" s="81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AT258" s="54"/>
       <c r="AU258" s="55">
         <v>43161</v>
       </c>
       <c r="AV258" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU258-B258)/30.4</f>
         <v>59.046052631578952</v>
       </c>
       <c r="AW258" s="54">
@@ -42623,14 +42624,14 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="AS259" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT259" s="54"/>
       <c r="AU259" s="55">
         <v>43389</v>
       </c>
       <c r="AV259" s="64">
-        <f t="shared" si="3"/>
+        <f>(AU259-B259)/30.4</f>
         <v>43.914473684210527</v>
       </c>
       <c r="AW259" s="54">
@@ -42796,14 +42797,14 @@
         <v>3.86</v>
       </c>
       <c r="AS260" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT260" s="54"/>
       <c r="AU260" s="55">
         <v>43535</v>
       </c>
       <c r="AV260" s="64">
-        <f t="shared" ref="AV260:AV271" si="4">(AU260-B260)/30.4</f>
+        <f>(AU260-B260)/30.4</f>
         <v>118.78289473684211</v>
       </c>
       <c r="AW260" s="54">
@@ -42969,14 +42970,14 @@
         <v>7.5</v>
       </c>
       <c r="AS261" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT261" s="54"/>
       <c r="AU261" s="55">
         <v>43622</v>
       </c>
       <c r="AV261" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU261-B261)/30.4</f>
         <v>91.05263157894737</v>
       </c>
       <c r="AW261" s="54">
@@ -43142,14 +43143,14 @@
         <v>10.68</v>
       </c>
       <c r="AS262" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT262" s="54"/>
       <c r="AU262" s="58">
         <v>43451</v>
       </c>
       <c r="AV262" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU262-B262)/30.4</f>
         <v>115.95394736842105</v>
       </c>
       <c r="AW262" s="54">
@@ -43317,14 +43318,14 @@
         <v>6.7</v>
       </c>
       <c r="AS263" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT263" s="54"/>
       <c r="AU263" s="58">
         <v>43647</v>
       </c>
       <c r="AV263" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU263-B263)/30.4</f>
         <v>126.77631578947368</v>
       </c>
       <c r="AW263" s="54">
@@ -43492,14 +43493,14 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AS264" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT264" s="54"/>
       <c r="AU264" s="55">
         <v>43158</v>
       </c>
       <c r="AV264" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU264-B264)/30.4</f>
         <v>88.453947368421055</v>
       </c>
       <c r="AW264" s="54">
@@ -43663,14 +43664,14 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AS265" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT265" s="54"/>
       <c r="AU265" s="55">
         <v>43118</v>
       </c>
       <c r="AV265" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU265-B265)/30.4</f>
         <v>87.796052631578945</v>
       </c>
       <c r="AW265" s="54">
@@ -43838,14 +43839,14 @@
         <v>10.3</v>
       </c>
       <c r="AS266" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT266" s="54"/>
       <c r="AU266" s="55">
         <v>43061</v>
       </c>
       <c r="AV266" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU266-B266)/30.4</f>
         <v>73.256578947368425</v>
       </c>
       <c r="AW266" s="54">
@@ -44011,14 +44012,14 @@
         <v>4.7</v>
       </c>
       <c r="AS267" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT267" s="54"/>
       <c r="AU267" s="55">
         <v>43605</v>
       </c>
       <c r="AV267" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU267-B267)/30.4</f>
         <v>71.31578947368422</v>
       </c>
       <c r="AW267" s="54">
@@ -44184,14 +44185,14 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="AS268" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT268" s="54"/>
       <c r="AU268" s="55">
         <v>43530</v>
       </c>
       <c r="AV268" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU268-B268)/30.4</f>
         <v>39.671052631578952</v>
       </c>
       <c r="AW268" s="54">
@@ -44355,7 +44356,7 @@
         <v>2.96</v>
       </c>
       <c r="AS269" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT269" s="54">
         <v>14</v>
@@ -44364,7 +44365,7 @@
         <v>41526</v>
       </c>
       <c r="AV269" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU269-B269)/30.4</f>
         <v>39.60526315789474</v>
       </c>
       <c r="AW269" s="54">
@@ -44530,7 +44531,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="AS270" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT270" s="54">
         <v>14</v>
@@ -44539,7 +44540,7 @@
         <v>42807</v>
       </c>
       <c r="AV270" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU270-B270)/30.4</f>
         <v>31.907894736842106</v>
       </c>
       <c r="AW270" s="54">
@@ -44703,14 +44704,14 @@
         <v>6.8</v>
       </c>
       <c r="AS271" s="81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT271" s="54"/>
       <c r="AU271" s="55">
         <v>43467</v>
       </c>
       <c r="AV271" s="64">
-        <f t="shared" si="4"/>
+        <f>(AU271-B271)/30.4</f>
         <v>82.73026315789474</v>
       </c>
       <c r="AW271" s="54">
@@ -44762,8 +44763,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BE270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH12" sqref="BH12"/>
+    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
